--- a/data/trans_orig/P2C_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>91492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73582</v>
+        <v>76407</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109641</v>
+        <v>109803</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2559626424819956</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2058584142578432</v>
+        <v>0.2137608348477759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.306737202215683</v>
+        <v>0.3071911569632667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>268</v>
@@ -765,19 +765,19 @@
         <v>281745</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>255967</v>
+        <v>257862</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309060</v>
+        <v>306866</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4150238463237558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3770512619778803</v>
+        <v>0.3798430815391703</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4552603606745349</v>
+        <v>0.4520284322907114</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>354</v>
@@ -786,19 +786,19 @@
         <v>373237</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>340368</v>
+        <v>339467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>405718</v>
+        <v>404311</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3601605667154556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3284429439090881</v>
+        <v>0.3275736484667984</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3915036632745236</v>
+        <v>0.3901462244739703</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>265950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247801</v>
+        <v>247639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283860</v>
+        <v>281035</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7440373575180044</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6932627977843169</v>
+        <v>0.692808843036733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7941415857421562</v>
+        <v>0.7862391651522238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>386</v>
@@ -836,19 +836,19 @@
         <v>397120</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>369805</v>
+        <v>371999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>422898</v>
+        <v>421003</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5849761536762442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5447396393254651</v>
+        <v>0.5479715677092887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6229487380221196</v>
+        <v>0.6201569184608298</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>656</v>
@@ -857,19 +857,19 @@
         <v>663070</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>630589</v>
+        <v>631996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>695939</v>
+        <v>696840</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6398394332845444</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6084963367254765</v>
+        <v>0.6098537755260299</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6715570560909121</v>
+        <v>0.6724263515332018</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>253085</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>229018</v>
+        <v>226877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279700</v>
+        <v>279620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3944832389459333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3569701294359846</v>
+        <v>0.3536325532873868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4359682111435207</v>
+        <v>0.4358431551543251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>345</v>
@@ -982,19 +982,19 @@
         <v>361726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>332564</v>
+        <v>334524</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>389575</v>
+        <v>389371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4994690238988561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4592021173350797</v>
+        <v>0.4619084202044125</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5379229027967345</v>
+        <v>0.5376410782441018</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>589</v>
@@ -1003,19 +1003,19 @@
         <v>614811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>579696</v>
+        <v>576976</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>651338</v>
+        <v>651025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.450153104681547</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4244425285588149</v>
+        <v>0.4224505384211951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4768972391628837</v>
+        <v>0.4766681067445937</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>388476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361861</v>
+        <v>361941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>412543</v>
+        <v>414684</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6055167610540666</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5640317888564792</v>
+        <v>0.5641568448456749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6430298705640155</v>
+        <v>0.6463674467126131</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -1053,19 +1053,19 @@
         <v>362495</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334646</v>
+        <v>334850</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391657</v>
+        <v>389697</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5005309761011439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4620770972032656</v>
+        <v>0.4623589217558981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5407978826649202</v>
+        <v>0.5380915797955875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>744</v>
@@ -1074,19 +1074,19 @@
         <v>750972</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>714445</v>
+        <v>714758</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>786087</v>
+        <v>788807</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.549846895318453</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5231027608371158</v>
+        <v>0.5233318932554063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5755574714411851</v>
+        <v>0.5775494615788049</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>275329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>253159</v>
+        <v>251622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302437</v>
+        <v>301476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4280409375610988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3935749999417081</v>
+        <v>0.3911844270995959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4701852393399042</v>
+        <v>0.4686908947078993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>295</v>
@@ -1199,19 +1199,19 @@
         <v>303220</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>279478</v>
+        <v>277193</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>329551</v>
+        <v>326986</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4805109024570953</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4428876713336206</v>
+        <v>0.4392671974224525</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.522238665828101</v>
+        <v>0.5181736624315254</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>558</v>
@@ -1220,19 +1220,19 @@
         <v>578548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>539493</v>
+        <v>541656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>615051</v>
+        <v>613462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4540248723222374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4233754777748214</v>
+        <v>0.4250730997755563</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.482671104825059</v>
+        <v>0.4814239669447469</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>367901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>340793</v>
+        <v>341754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>390071</v>
+        <v>391608</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5719590624389012</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5298147606600958</v>
+        <v>0.5313091052921007</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6064250000582919</v>
+        <v>0.6088155729004041</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -1270,19 +1270,19 @@
         <v>327816</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301485</v>
+        <v>304050</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>351558</v>
+        <v>353843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5194890975429047</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4777613341718991</v>
+        <v>0.4818263375684745</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5571123286663794</v>
+        <v>0.5607328025775475</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>690</v>
@@ -1291,19 +1291,19 @@
         <v>695718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>659215</v>
+        <v>660804</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>734773</v>
+        <v>732610</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5459751276777627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5173288951749414</v>
+        <v>0.518576033055253</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5766245222251787</v>
+        <v>0.5749269002244436</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>78857</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65161</v>
+        <v>65237</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94798</v>
+        <v>93579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3262659098193992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2696008390616513</v>
+        <v>0.2699148086018132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3922217906769165</v>
+        <v>0.3871765899885424</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -1416,19 +1416,19 @@
         <v>98440</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83140</v>
+        <v>83806</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113643</v>
+        <v>114455</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4460756847186618</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3767444247761798</v>
+        <v>0.3797640270096735</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5149672656759438</v>
+        <v>0.5186471986467395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -1437,19 +1437,19 @@
         <v>177297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155060</v>
+        <v>156233</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>198387</v>
+        <v>197976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3834480633388603</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.335355328042483</v>
+        <v>0.3378932185251471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.429061481888194</v>
+        <v>0.4281722128721491</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>162838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146897</v>
+        <v>148116</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>176534</v>
+        <v>176458</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6737340901806008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6077782093230832</v>
+        <v>0.6128234100114576</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7303991609383487</v>
+        <v>0.7300851913981868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -1487,19 +1487,19 @@
         <v>122240</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>107037</v>
+        <v>106225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137540</v>
+        <v>136874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5539243152813382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.485032734324056</v>
+        <v>0.4813528013532606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6232555752238199</v>
+        <v>0.6202359729903267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>281</v>
@@ -1508,19 +1508,19 @@
         <v>285078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263988</v>
+        <v>264399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>307315</v>
+        <v>306142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6165519366611397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.570938518111806</v>
+        <v>0.5718277871278504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.664644671957517</v>
+        <v>0.6621067814748526</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>698763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>658471</v>
+        <v>657066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>743635</v>
+        <v>740946</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3709071895167798</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3495201075759202</v>
+        <v>0.3487743376368928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3947258328776929</v>
+        <v>0.3932984816220717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1005</v>
@@ -1633,19 +1633,19 @@
         <v>1045131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>997251</v>
+        <v>999657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1094266</v>
+        <v>1091302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4635133413072438</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.442278603247327</v>
+        <v>0.4433459812461125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4853046456933195</v>
+        <v>0.4839900216112885</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1676</v>
@@ -1654,19 +1654,19 @@
         <v>1743893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1685458</v>
+        <v>1680435</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1807844</v>
+        <v>1806527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4213595019210355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4072404639796612</v>
+        <v>0.4060267199178369</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4368112163996787</v>
+        <v>0.4364929713754787</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1185166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1140294</v>
+        <v>1142983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1225458</v>
+        <v>1226863</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6290928104832202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.605274167122307</v>
+        <v>0.6067015183779286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6504798924240798</v>
+        <v>0.6512256623631072</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1184</v>
@@ -1704,19 +1704,19 @@
         <v>1209671</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1160536</v>
+        <v>1163500</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1257551</v>
+        <v>1255145</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5364866586927562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5146953543066805</v>
+        <v>0.5160099783887114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.557721396752673</v>
+        <v>0.5566540187538875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2371</v>
@@ -1725,19 +1725,19 @@
         <v>2394837</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2330886</v>
+        <v>2332203</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2453272</v>
+        <v>2458295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5786404980789646</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5631887836003212</v>
+        <v>0.5635070286245214</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5927595360203388</v>
+        <v>0.5939732800821632</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>337566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>311306</v>
+        <v>309804</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365045</v>
+        <v>364923</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4934090477872421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.455026264847919</v>
+        <v>0.4528305770062772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5335743108036197</v>
+        <v>0.533396260651907</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>487</v>
@@ -2090,19 +2090,19 @@
         <v>523777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>495033</v>
+        <v>497275</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>551190</v>
+        <v>551798</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6459807485212372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6105307038058964</v>
+        <v>0.6132956847590935</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6797903204381009</v>
+        <v>0.6805399728291353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>806</v>
@@ -2111,19 +2111,19 @@
         <v>861343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>821002</v>
+        <v>825251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>898000</v>
+        <v>903466</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5761588519295234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5491744516637325</v>
+        <v>0.5520172105278769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6006795590554719</v>
+        <v>0.6043357264912637</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>346584</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>319105</v>
+        <v>319227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372844</v>
+        <v>374346</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5065909522127579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4664256891963803</v>
+        <v>0.466603739348093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5449737351520813</v>
+        <v>0.5471694229937231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -2161,19 +2161,19 @@
         <v>287047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259634</v>
+        <v>259026</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315791</v>
+        <v>313549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3540192514787627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3202096795618989</v>
+        <v>0.3194600271708645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3894692961941035</v>
+        <v>0.3867043152409065</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>587</v>
@@ -2182,19 +2182,19 @@
         <v>633631</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>596974</v>
+        <v>591508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>673972</v>
+        <v>669723</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4238411480704766</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3993204409445278</v>
+        <v>0.3956642735087363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4508255483362675</v>
+        <v>0.4479827894721232</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>322076</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>293901</v>
+        <v>295114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>348278</v>
+        <v>345754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5100531478724766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4654350377675328</v>
+        <v>0.4673557467686768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.55154806696189</v>
+        <v>0.5475509452162572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>451</v>
@@ -2307,19 +2307,19 @@
         <v>484792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>456208</v>
+        <v>456419</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>509581</v>
+        <v>509837</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6127704659351314</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5766401407663487</v>
+        <v>0.5769068589519507</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6441033560795415</v>
+        <v>0.6444271598660239</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>758</v>
@@ -2328,19 +2328,19 @@
         <v>806868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>767965</v>
+        <v>764882</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>845134</v>
+        <v>843824</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5671770142190747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5398304396523925</v>
+        <v>0.5376634235181371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5940756802452749</v>
+        <v>0.5931541873100529</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>309379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>283177</v>
+        <v>285701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>337554</v>
+        <v>336341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4899468521275235</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.44845193303811</v>
+        <v>0.4524490547837427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5345649622324672</v>
+        <v>0.5326442532313231</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -2378,19 +2378,19 @@
         <v>306356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>281567</v>
+        <v>281311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>334940</v>
+        <v>334729</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3872295340648687</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3558966439204586</v>
+        <v>0.3555728401339761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4233598592336512</v>
+        <v>0.4230931410480499</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>579</v>
@@ -2399,19 +2399,19 @@
         <v>615736</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>577470</v>
+        <v>578780</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>654639</v>
+        <v>657722</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4328229857809253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4059243197547249</v>
+        <v>0.4068458126899471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4601695603476074</v>
+        <v>0.4623365764818629</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>242170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>219219</v>
+        <v>216776</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266032</v>
+        <v>264553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.463926750432025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4199591837231158</v>
+        <v>0.4152783343803356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5096395981531735</v>
+        <v>0.5068047386343052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>335</v>
@@ -2524,19 +2524,19 @@
         <v>357969</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>334906</v>
+        <v>333563</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>384192</v>
+        <v>385174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5793700594040149</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5420419762415767</v>
+        <v>0.5398694722364662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6218112457884103</v>
+        <v>0.6234013520549864</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>567</v>
@@ -2545,19 +2545,19 @@
         <v>600139</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>566086</v>
+        <v>566816</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>633646</v>
+        <v>633590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5265025718586612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4966279433033278</v>
+        <v>0.4972679405121437</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5558981557253607</v>
+        <v>0.5558486793455645</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>279831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>255969</v>
+        <v>257448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302782</v>
+        <v>305225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.536073249567975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4903604018468264</v>
+        <v>0.4931952613656948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5800408162768842</v>
+        <v>0.5847216656196644</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -2595,19 +2595,19 @@
         <v>259890</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>233667</v>
+        <v>232685</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>282953</v>
+        <v>284296</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4206299405959851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3781887542115896</v>
+        <v>0.3765986479450135</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4579580237584233</v>
+        <v>0.4601305277635337</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>501</v>
@@ -2616,19 +2616,19 @@
         <v>539721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>506214</v>
+        <v>506270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>573774</v>
+        <v>573044</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4734974281413388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4441018442746393</v>
+        <v>0.4441513206544355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5033720566966723</v>
+        <v>0.5027320594878563</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>149114</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131505</v>
+        <v>130086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167371</v>
+        <v>166500</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5173995182596989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4562985426055333</v>
+        <v>0.4513749594867166</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5807492051514737</v>
+        <v>0.5777258527957456</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -2741,19 +2741,19 @@
         <v>177478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157475</v>
+        <v>159925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>193839</v>
+        <v>193624</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6187250809529375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5489908753010756</v>
+        <v>0.5575327936919566</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6757608300645075</v>
+        <v>0.6750120590841404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -2762,19 +2762,19 @@
         <v>326593</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>300479</v>
+        <v>300785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>350278</v>
+        <v>353241</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.567943032623165</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5225306446612485</v>
+        <v>0.5230641405172096</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6091315983532073</v>
+        <v>0.6142847072979244</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>139085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120828</v>
+        <v>121699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156694</v>
+        <v>158113</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4826004817403011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.419250794848527</v>
+        <v>0.4222741472042543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5437014573944667</v>
+        <v>0.5486250405132834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -2812,19 +2812,19 @@
         <v>109367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93006</v>
+        <v>93221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129370</v>
+        <v>126920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3812749190470625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3242391699354926</v>
+        <v>0.3249879409158593</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4510091246989249</v>
+        <v>0.4424672063080433</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>223</v>
@@ -2833,19 +2833,19 @@
         <v>248452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>224767</v>
+        <v>221804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>274566</v>
+        <v>274260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.432056967376835</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3908684016467928</v>
+        <v>0.3857152927020757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4774693553387515</v>
+        <v>0.4769358594827904</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1050926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1002186</v>
+        <v>1001420</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1097896</v>
+        <v>1099553</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4943659757712814</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4714380515473344</v>
+        <v>0.4710779060989926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5164611592115647</v>
+        <v>0.517240531674812</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1434</v>
@@ -2958,19 +2958,19 @@
         <v>1544017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1493189</v>
+        <v>1494733</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1594379</v>
+        <v>1590701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6159615468095763</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5956845731214242</v>
+        <v>0.596300528898841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6360526543512328</v>
+        <v>0.6345853939120595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2428</v>
@@ -2979,19 +2979,19 @@
         <v>2594943</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2517236</v>
+        <v>2525770</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2661727</v>
+        <v>2664529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5601624007905058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5433881228818285</v>
+        <v>0.5452303347090794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5745788178329125</v>
+        <v>0.5751836984327299</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1074880</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1027910</v>
+        <v>1026253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1123620</v>
+        <v>1124386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5056340242287186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4835388407884353</v>
+        <v>0.4827594683251882</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5285619484526658</v>
+        <v>0.5289220939010076</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>900</v>
@@ -3029,19 +3029,19 @@
         <v>962660</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>912298</v>
+        <v>915976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1013488</v>
+        <v>1011944</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3840384531904237</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3639473456487672</v>
+        <v>0.3654146060879404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4043154268785758</v>
+        <v>0.4036994711011589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1890</v>
@@ -3050,19 +3050,19 @@
         <v>2037540</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1970756</v>
+        <v>1967954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2115247</v>
+        <v>2106713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4398375992094942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4254211821670875</v>
+        <v>0.4248163015672701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4566118771181715</v>
+        <v>0.4547696652909202</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>321489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>295393</v>
+        <v>297673</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>347349</v>
+        <v>348226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5057324705232957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4646810045528826</v>
+        <v>0.4682677376453281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.546412869218811</v>
+        <v>0.5477924242673132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>470</v>
@@ -3415,19 +3415,19 @@
         <v>479027</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>450601</v>
+        <v>447947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>510391</v>
+        <v>510301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5515063546974678</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5187786420366391</v>
+        <v>0.5157234795078828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5876157576044637</v>
+        <v>0.587511735350418</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>771</v>
@@ -3436,19 +3436,19 @@
         <v>800516</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>763788</v>
+        <v>761473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>838374</v>
+        <v>838414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5321627422506152</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5077468546301652</v>
+        <v>0.506207817002866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5573295528474983</v>
+        <v>0.5573562006542202</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>314201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>288341</v>
+        <v>287464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>340297</v>
+        <v>338017</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4942675294767043</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.453587130781189</v>
+        <v>0.4522075757326868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5353189954471174</v>
+        <v>0.5317322623546719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>345</v>
@@ -3486,19 +3486,19 @@
         <v>389553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>358189</v>
+        <v>358279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>417979</v>
+        <v>420633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4484936453025322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4123842423955362</v>
+        <v>0.412488264649582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4812213579633607</v>
+        <v>0.4842765204921172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>655</v>
@@ -3507,19 +3507,19 @@
         <v>703754</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>665896</v>
+        <v>665856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>740482</v>
+        <v>742797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4678372577493847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4426704471525017</v>
+        <v>0.4426437993457798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4922531453698347</v>
+        <v>0.4937921829971342</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>217348</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194642</v>
+        <v>194311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>240927</v>
+        <v>241035</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4211546572239582</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3771566666761665</v>
+        <v>0.3765161956959432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.466843754238343</v>
+        <v>0.4670536741652004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>331</v>
@@ -3632,19 +3632,19 @@
         <v>341163</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>313180</v>
+        <v>315514</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>367060</v>
+        <v>367667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5062718618606058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4647462736127267</v>
+        <v>0.4682092704854293</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5447016575770049</v>
+        <v>0.5456024001655594</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>540</v>
@@ -3653,19 +3653,19 @@
         <v>558511</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>522054</v>
+        <v>525382</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>594087</v>
+        <v>592729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4693568990020917</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4387199618024546</v>
+        <v>0.4415160189337968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4992538964575584</v>
+        <v>0.4981126364957338</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>298728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275149</v>
+        <v>275041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>321434</v>
+        <v>321765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5788453427760418</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.533156245761657</v>
+        <v>0.5329463258347996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6228433333238335</v>
+        <v>0.6234838043040568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>303</v>
@@ -3703,19 +3703,19 @@
         <v>332710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306813</v>
+        <v>306206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>360693</v>
+        <v>358359</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4937281381393943</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.455298342422995</v>
+        <v>0.4543975998344406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5352537263872733</v>
+        <v>0.5317907295145707</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>606</v>
@@ -3724,19 +3724,19 @@
         <v>631438</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>595862</v>
+        <v>597220</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>667895</v>
+        <v>664567</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5306431009979083</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5007461035424416</v>
+        <v>0.5018873635042662</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5612800381975452</v>
+        <v>0.5584839810662033</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>204274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182007</v>
+        <v>181704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226520</v>
+        <v>227319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4347038392392202</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3873185015514087</v>
+        <v>0.3866739804759903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4820432979911938</v>
+        <v>0.4837435714944809</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -3849,19 +3849,19 @@
         <v>220990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199574</v>
+        <v>198671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>243562</v>
+        <v>242688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4613410776536885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4166326928656386</v>
+        <v>0.4147462913800974</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5084625581690742</v>
+        <v>0.5066374721663041</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>413</v>
@@ -3870,19 +3870,19 @@
         <v>425265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>393377</v>
+        <v>393727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>456464</v>
+        <v>459765</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4481502015016112</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4145468929398184</v>
+        <v>0.4149153233954003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4810290199817359</v>
+        <v>0.4845076932871642</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>265642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>243396</v>
+        <v>242597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287909</v>
+        <v>288212</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5652961607607798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5179567020088066</v>
+        <v>0.5162564285055191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6126814984485913</v>
+        <v>0.6133260195240097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -3920,19 +3920,19 @@
         <v>258027</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>235455</v>
+        <v>236329</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>279443</v>
+        <v>280346</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5386589223463115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.491537441830926</v>
+        <v>0.4933625278336961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5833673071343615</v>
+        <v>0.5852537086199028</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>490</v>
@@ -3941,19 +3941,19 @@
         <v>523668</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>492469</v>
+        <v>489168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555556</v>
+        <v>555206</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5518497984983888</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5189709800182641</v>
+        <v>0.5154923067128359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5854531070601816</v>
+        <v>0.5850846766045997</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>91467</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76648</v>
+        <v>76174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106736</v>
+        <v>108772</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3526586540705728</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2955223894650076</v>
+        <v>0.2936950447893806</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4115273406099234</v>
+        <v>0.4193764746310243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -4066,19 +4066,19 @@
         <v>153227</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134234</v>
+        <v>135075</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171386</v>
+        <v>171865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5058426445350218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4431410453955704</v>
+        <v>0.4459185792375999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5657880560668114</v>
+        <v>0.5673697075507624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -4087,19 +4087,19 @@
         <v>244695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221865</v>
+        <v>221873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>270933</v>
+        <v>271246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4351828932941675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3945809633944879</v>
+        <v>0.3945943781221488</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4818471673100261</v>
+        <v>0.4824038581851714</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>167898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152629</v>
+        <v>150593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182717</v>
+        <v>183191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6473413459294273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5884726593900769</v>
+        <v>0.5806235253689754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7044776105349924</v>
+        <v>0.7063049552106193</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -4137,19 +4137,19 @@
         <v>149688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>131529</v>
+        <v>131050</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168681</v>
+        <v>167840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4941573554649782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4342119439331886</v>
+        <v>0.4326302924492376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5568589546044297</v>
+        <v>0.5540814207624001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>294</v>
@@ -4158,19 +4158,19 @@
         <v>317585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>291347</v>
+        <v>291034</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>340415</v>
+        <v>340407</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5648171067058325</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5181528326899737</v>
+        <v>0.5175961418148286</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6054190366055121</v>
+        <v>0.6054056218778511</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>834579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>789991</v>
+        <v>787583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>876229</v>
+        <v>872593</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.443677651489805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4199743453849382</v>
+        <v>0.4186937281520941</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.465820056102815</v>
+        <v>0.4638867772212</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1164</v>
@@ -4283,19 +4283,19 @@
         <v>1194408</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1144588</v>
+        <v>1143298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1244792</v>
+        <v>1241943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.51385972461767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4924263364733357</v>
+        <v>0.4918712148940403</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5355360800294939</v>
+        <v>0.5343103886744801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1953</v>
@@ -4304,19 +4304,19 @@
         <v>2028986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1967166</v>
+        <v>1966929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2099280</v>
+        <v>2099012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4824679995619288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4677678242276033</v>
+        <v>0.4677114734725908</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4991829894072959</v>
+        <v>0.499119327230989</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1046468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1004818</v>
+        <v>1008454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1091056</v>
+        <v>1093464</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5563223485101949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.534179943897185</v>
+        <v>0.5361132227787999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5800256546150618</v>
+        <v>0.5813062718479058</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1008</v>
@@ -4354,19 +4354,19 @@
         <v>1129977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1079593</v>
+        <v>1082442</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1179797</v>
+        <v>1181087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4861402753823299</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4644639199705061</v>
+        <v>0.4656896113255199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5075736635266643</v>
+        <v>0.5081287851059596</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2045</v>
@@ -4375,19 +4375,19 @@
         <v>2176446</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2106152</v>
+        <v>2106420</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2238266</v>
+        <v>2238503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5175320004380711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.500817010592704</v>
+        <v>0.5008806727690105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5322321757723966</v>
+        <v>0.5322885265274089</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>61513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47934</v>
+        <v>46546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81954</v>
+        <v>76906</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1233377426948217</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09611039387448411</v>
+        <v>0.09332782285295041</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.164322404088156</v>
+        <v>0.154200341566355</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -4740,19 +4740,19 @@
         <v>111969</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93921</v>
+        <v>94261</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130920</v>
+        <v>129602</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1795588655773735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1506157906621519</v>
+        <v>0.1511609324219141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2099491463989667</v>
+        <v>0.207835897070031</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -4761,19 +4761,19 @@
         <v>173483</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>148150</v>
+        <v>151192</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>197021</v>
+        <v>197621</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1545751751032474</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1320034499441943</v>
+        <v>0.1347136877121612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1755476148159493</v>
+        <v>0.1760826228867568</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>437226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>416785</v>
+        <v>421833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>450805</v>
+        <v>452193</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8766622573051783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.835677595911844</v>
+        <v>0.8457996584336451</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9038896061255157</v>
+        <v>0.9066721771470496</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>721</v>
@@ -4811,19 +4811,19 @@
         <v>511611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>492660</v>
+        <v>493978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>529659</v>
+        <v>529319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8204411344226263</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7900508536010332</v>
+        <v>0.7921641029299689</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.849384209337848</v>
+        <v>0.8488390675780858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1120</v>
@@ -4832,19 +4832,19 @@
         <v>948837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>925299</v>
+        <v>924699</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>974170</v>
+        <v>971128</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8454248248967527</v>
+        <v>0.8454248248967525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8244523851840507</v>
+        <v>0.8239173771132432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8679965500558058</v>
+        <v>0.8652863122878387</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>127159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105705</v>
+        <v>107385</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151784</v>
+        <v>151620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1324387408026981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1100933421319698</v>
+        <v>0.1118431181507925</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1580861198045434</v>
+        <v>0.1579146846123177</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>248</v>
@@ -4957,19 +4957,19 @@
         <v>186270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>164511</v>
+        <v>165161</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>207873</v>
+        <v>209898</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1669313196421143</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1474313073085411</v>
+        <v>0.1480135679060627</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1862916764268119</v>
+        <v>0.1881059059383407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>366</v>
@@ -4978,19 +4978,19 @@
         <v>313429</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283523</v>
+        <v>283350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>347607</v>
+        <v>346934</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.150978615613924</v>
+        <v>0.1509786156139239</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1365726911572171</v>
+        <v>0.1364895398212117</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1674416973769155</v>
+        <v>0.16711780963083</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>832978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>808353</v>
+        <v>808517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>854432</v>
+        <v>852752</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.867561259197302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8419138801954564</v>
+        <v>0.8420853153876823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8899066578680304</v>
+        <v>0.8881568818492075</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1359</v>
@@ -5028,19 +5028,19 @@
         <v>929579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>907976</v>
+        <v>905951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>951338</v>
+        <v>950688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8330686803578855</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8137083235731885</v>
+        <v>0.8118940940616596</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.852568692691459</v>
+        <v>0.8519864320939372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2151</v>
@@ -5049,19 +5049,19 @@
         <v>1762557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1728379</v>
+        <v>1729052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1792463</v>
+        <v>1792636</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8490213843860761</v>
+        <v>0.849021384386076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8325583026230846</v>
+        <v>0.83288219036917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.863427308842783</v>
+        <v>0.8635104601787884</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>87620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69808</v>
+        <v>68859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110337</v>
+        <v>109254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08372842773275598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06670716025393646</v>
+        <v>0.06580034614385719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.105436039023933</v>
+        <v>0.1044015153229051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -5174,19 +5174,19 @@
         <v>138264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118315</v>
+        <v>118391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>159784</v>
+        <v>159585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1319768046978426</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1129341001424907</v>
+        <v>0.1130075813777066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1525176887954202</v>
+        <v>0.1523281882478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>258</v>
@@ -5195,19 +5195,19 @@
         <v>225884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>200307</v>
+        <v>198969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257912</v>
+        <v>256978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1078660065242242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09565190833811021</v>
+        <v>0.09501304898959277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1231601953071154</v>
+        <v>0.1227137783350621</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>958859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>936142</v>
+        <v>937225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>976671</v>
+        <v>977620</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9162715722672441</v>
+        <v>0.916271572267244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8945639609760672</v>
+        <v>0.8955984846770948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9332928397460635</v>
+        <v>0.9341996538561428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1338</v>
@@ -5245,19 +5245,19 @@
         <v>909378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>887858</v>
+        <v>888057</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>929327</v>
+        <v>929251</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8680231953021573</v>
+        <v>0.8680231953021574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.84748231120458</v>
+        <v>0.8476718117521999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8870658998575094</v>
+        <v>0.8869924186222935</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2287</v>
@@ -5266,19 +5266,19 @@
         <v>1868237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1836209</v>
+        <v>1837143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1893814</v>
+        <v>1895152</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8921339934757757</v>
+        <v>0.8921339934757758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8768398046928845</v>
+        <v>0.8772862216649379</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9043480916618898</v>
+        <v>0.9049869510104072</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>32523</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22260</v>
+        <v>21643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45096</v>
+        <v>45800</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03332520167751662</v>
+        <v>0.03332520167751663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02280912057992417</v>
+        <v>0.02217655300822504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04620816590036632</v>
+        <v>0.04693003270073851</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -5391,19 +5391,19 @@
         <v>42307</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31243</v>
+        <v>32153</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53894</v>
+        <v>55028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04647343705907558</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03431990760535975</v>
+        <v>0.0353194266296928</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0592015825539928</v>
+        <v>0.06044795369357488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -5412,19 +5412,19 @@
         <v>74830</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59466</v>
+        <v>59425</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92767</v>
+        <v>93233</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03967074270184003</v>
+        <v>0.03967074270184002</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03152538690970628</v>
+        <v>0.03150393349881447</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04918022559698901</v>
+        <v>0.04942723088339541</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>943406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>930833</v>
+        <v>930129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>953669</v>
+        <v>954286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9666747983224835</v>
+        <v>0.9666747983224834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9537918340996336</v>
+        <v>0.9530699672992616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.977190879420076</v>
+        <v>0.9778234469917748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1266</v>
@@ -5462,19 +5462,19 @@
         <v>868038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>856451</v>
+        <v>855317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>879102</v>
+        <v>878192</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9535265629409244</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9407984174460077</v>
+        <v>0.9395520463064252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9656800923946404</v>
+        <v>0.9646805733703073</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2180</v>
@@ -5483,19 +5483,19 @@
         <v>1811444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1793507</v>
+        <v>1793041</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1826808</v>
+        <v>1826849</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9603292572981602</v>
+        <v>0.96032925729816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9508197744030112</v>
+        <v>0.9505727691166045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.968474613090294</v>
+        <v>0.9684960665011856</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>308816</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>274533</v>
+        <v>276564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>349941</v>
+        <v>351477</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0887074253221647</v>
+        <v>0.08870742532216472</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07885960035233602</v>
+        <v>0.0794429790547927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1005206119481125</v>
+        <v>0.1009618804625772</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>624</v>
@@ -5608,19 +5608,19 @@
         <v>478811</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>445310</v>
+        <v>444430</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>518193</v>
+        <v>520891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.129498763257751</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1204380960827753</v>
+        <v>0.1202002129786112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1401500116258927</v>
+        <v>0.1408798085792295</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>911</v>
@@ -5629,19 +5629,19 @@
         <v>787627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>733589</v>
+        <v>739402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>841753</v>
+        <v>840342</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1097171540559718</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1021896430336223</v>
+        <v>0.102999392230933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1172569884689155</v>
+        <v>0.1170604268238953</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3172468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3131343</v>
+        <v>3129807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3206751</v>
+        <v>3204720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9112925746778353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8994793880518875</v>
+        <v>0.8990381195374227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.921140399647664</v>
+        <v>0.920557020945207</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4684</v>
@@ -5679,19 +5679,19 @@
         <v>3218605</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3179223</v>
+        <v>3176525</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3252106</v>
+        <v>3252986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.870501236742249</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8598499883741073</v>
+        <v>0.85912019142077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8795619039172248</v>
+        <v>0.8797997870213887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7738</v>
@@ -5700,19 +5700,19 @@
         <v>6391074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6336948</v>
+        <v>6338359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6445112</v>
+        <v>6439299</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8902828459440283</v>
+        <v>0.8902828459440282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8827430115310845</v>
+        <v>0.8829395731761048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8978103569663778</v>
+        <v>0.8970006077690669</v>
       </c>
     </row>
     <row r="18">
